--- a/src/test/resources/data/测试数据.xlsx
+++ b/src/test/resources/data/测试数据.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CE77660-3051-463D-9513-1C3C06A96D70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E72A5B7-2C33-4D8E-92CB-D9347D0DEE70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2595" yWindow="1860" windowWidth="23055" windowHeight="11985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="495" yWindow="1440" windowWidth="23055" windowHeight="11985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="需设计填写" sheetId="1" r:id="rId1"/>
@@ -7909,7 +7909,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="215">
+  <cellXfs count="216">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -8547,6 +8547,9 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_" xfId="9" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -9008,10 +9011,10 @@
   <dimension ref="A1:CW194"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="9" ySplit="1" topLeftCell="BX163" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2:F23"/>
+      <selection pane="bottomRight" activeCell="BY175" sqref="BY175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -9583,10 +9586,10 @@
       <c r="BY2" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ2" s="1">
+      <c r="BZ2" s="215">
         <v>18</v>
       </c>
-      <c r="CA2" s="1">
+      <c r="CA2" s="215">
         <v>3</v>
       </c>
       <c r="CB2" s="119" t="s">
@@ -9827,10 +9830,10 @@
       <c r="BY3" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ3" s="1">
+      <c r="BZ3" s="215">
         <v>18</v>
       </c>
-      <c r="CA3" s="1">
+      <c r="CA3" s="215">
         <v>3</v>
       </c>
       <c r="CB3" s="119" t="s">
@@ -10070,10 +10073,10 @@
       <c r="BY4" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ4" s="1">
+      <c r="BZ4" s="215">
         <v>18</v>
       </c>
-      <c r="CA4" s="1">
+      <c r="CA4" s="215">
         <v>3</v>
       </c>
       <c r="CB4" s="119" t="s">
@@ -10313,10 +10316,10 @@
       <c r="BY5" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ5" s="1">
+      <c r="BZ5" s="215">
         <v>18</v>
       </c>
-      <c r="CA5" s="1">
+      <c r="CA5" s="215">
         <v>3</v>
       </c>
       <c r="CB5" s="119" t="s">
@@ -10556,10 +10559,10 @@
       <c r="BY6" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ6" s="1">
+      <c r="BZ6" s="215">
         <v>18</v>
       </c>
-      <c r="CA6" s="1">
+      <c r="CA6" s="215">
         <v>3</v>
       </c>
       <c r="CB6" s="119" t="s">
@@ -10799,10 +10802,10 @@
       <c r="BY7" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ7" s="1">
+      <c r="BZ7" s="215">
         <v>18</v>
       </c>
-      <c r="CA7" s="1">
+      <c r="CA7" s="215">
         <v>3</v>
       </c>
       <c r="CB7" s="119" t="s">
@@ -11042,10 +11045,10 @@
       <c r="BY8" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ8" s="1">
+      <c r="BZ8" s="215">
         <v>18</v>
       </c>
-      <c r="CA8" s="1">
+      <c r="CA8" s="215">
         <v>3</v>
       </c>
       <c r="CB8" s="119" t="s">
@@ -11289,10 +11292,10 @@
       <c r="BY9" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ9" s="1">
+      <c r="BZ9" s="215">
         <v>18</v>
       </c>
-      <c r="CA9" s="1">
+      <c r="CA9" s="215">
         <v>3</v>
       </c>
       <c r="CB9" s="119" t="s">
@@ -11537,10 +11540,10 @@
       <c r="BY10" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ10" s="1">
+      <c r="BZ10" s="215">
         <v>18</v>
       </c>
-      <c r="CA10" s="1">
+      <c r="CA10" s="215">
         <v>3</v>
       </c>
       <c r="CB10" s="119" t="s">
@@ -11784,10 +11787,10 @@
       <c r="BY11" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ11" s="1">
+      <c r="BZ11" s="215">
         <v>18</v>
       </c>
-      <c r="CA11" s="1">
+      <c r="CA11" s="215">
         <v>3</v>
       </c>
       <c r="CB11" s="119" t="s">
@@ -12031,10 +12034,10 @@
       <c r="BY12" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ12" s="1">
+      <c r="BZ12" s="215">
         <v>18</v>
       </c>
-      <c r="CA12" s="1">
+      <c r="CA12" s="215">
         <v>3</v>
       </c>
       <c r="CB12" s="119" t="s">
@@ -12278,10 +12281,10 @@
       <c r="BY13" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ13" s="1">
+      <c r="BZ13" s="215">
         <v>18</v>
       </c>
-      <c r="CA13" s="1">
+      <c r="CA13" s="215">
         <v>3</v>
       </c>
       <c r="CB13" s="119" t="s">
@@ -12525,10 +12528,10 @@
       <c r="BY14" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ14" s="1">
+      <c r="BZ14" s="215">
         <v>18</v>
       </c>
-      <c r="CA14" s="1">
+      <c r="CA14" s="215">
         <v>3</v>
       </c>
       <c r="CB14" s="119" t="s">
@@ -12772,10 +12775,10 @@
       <c r="BY15" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ15" s="1">
+      <c r="BZ15" s="215">
         <v>18</v>
       </c>
-      <c r="CA15" s="1">
+      <c r="CA15" s="215">
         <v>3</v>
       </c>
       <c r="CB15" s="119" t="s">
@@ -13013,10 +13016,10 @@
       <c r="BY16" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="BZ16" s="1">
+      <c r="BZ16" s="215">
         <v>35.11</v>
       </c>
-      <c r="CA16" s="1">
+      <c r="CA16" s="215">
         <v>3.6</v>
       </c>
       <c r="CB16" s="119" t="s">
@@ -13256,10 +13259,10 @@
       <c r="BY17" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ17" s="1">
+      <c r="BZ17" s="215">
         <v>10.78</v>
       </c>
-      <c r="CA17" s="1">
+      <c r="CA17" s="215">
         <v>4.3</v>
       </c>
       <c r="CB17" s="1" t="s">
@@ -13501,10 +13504,10 @@
       <c r="BY18" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ18" s="1">
+      <c r="BZ18" s="215">
         <v>10.78</v>
       </c>
-      <c r="CA18" s="1">
+      <c r="CA18" s="215">
         <v>4.3</v>
       </c>
       <c r="CB18" s="1" t="s">
@@ -13742,10 +13745,10 @@
       <c r="BY19" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ19" s="1">
+      <c r="BZ19" s="215">
         <v>11</v>
       </c>
-      <c r="CA19" s="1">
+      <c r="CA19" s="215">
         <v>4.2</v>
       </c>
       <c r="CB19" s="1" t="s">
@@ -13987,10 +13990,10 @@
       <c r="BY20" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ20" s="1">
+      <c r="BZ20" s="215">
         <v>11</v>
       </c>
-      <c r="CA20" s="1">
+      <c r="CA20" s="215">
         <v>4.2</v>
       </c>
       <c r="CB20" s="1" t="s">
@@ -14228,10 +14231,10 @@
       <c r="BY21" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ21" s="1">
+      <c r="BZ21" s="215">
         <v>37.21</v>
       </c>
-      <c r="CA21" s="1">
+      <c r="CA21" s="215">
         <v>4.5</v>
       </c>
       <c r="CB21" s="1" t="s">
@@ -14470,10 +14473,10 @@
       <c r="BY22" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ22" s="1">
+      <c r="BZ22" s="215">
         <v>37.21</v>
       </c>
-      <c r="CA22" s="1">
+      <c r="CA22" s="215">
         <v>4.5</v>
       </c>
       <c r="CB22" s="1" t="s">
@@ -14715,10 +14718,10 @@
       <c r="BY23" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ23" s="1">
+      <c r="BZ23" s="215">
         <v>37.21</v>
       </c>
-      <c r="CA23" s="1">
+      <c r="CA23" s="215">
         <v>4.5</v>
       </c>
       <c r="CB23" s="1" t="s">
@@ -14961,10 +14964,10 @@
       <c r="BY24" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ24" s="1">
+      <c r="BZ24" s="215">
         <v>37.21</v>
       </c>
-      <c r="CA24" s="1">
+      <c r="CA24" s="215">
         <v>4.5</v>
       </c>
       <c r="CB24" s="1" t="s">
@@ -15202,10 +15205,10 @@
       <c r="BY25" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ25" s="1">
+      <c r="BZ25" s="215">
         <v>8.4600000000000009</v>
       </c>
-      <c r="CA25" s="1">
+      <c r="CA25" s="215">
         <v>2.5</v>
       </c>
       <c r="CB25" s="1" t="s">
@@ -15444,10 +15447,10 @@
       <c r="BY26" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ26" s="1">
+      <c r="BZ26" s="215">
         <v>8.4600000000000009</v>
       </c>
-      <c r="CA26" s="1">
+      <c r="CA26" s="215">
         <v>2.5</v>
       </c>
       <c r="CB26" s="1" t="s">
@@ -15689,10 +15692,10 @@
       <c r="BY27" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ27" s="1">
+      <c r="BZ27" s="215">
         <v>8.4600000000000009</v>
       </c>
-      <c r="CA27" s="1">
+      <c r="CA27" s="215">
         <v>2.5</v>
       </c>
       <c r="CB27" s="1" t="s">
@@ -15935,10 +15938,10 @@
       <c r="BY28" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ28" s="1">
+      <c r="BZ28" s="215">
         <v>8.4600000000000009</v>
       </c>
-      <c r="CA28" s="1">
+      <c r="CA28" s="215">
         <v>2.5</v>
       </c>
       <c r="CB28" s="1" t="s">
@@ -16176,10 +16179,10 @@
       <c r="BY29" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ29" s="1">
+      <c r="BZ29" s="215">
         <v>35</v>
       </c>
-      <c r="CA29" s="1">
+      <c r="CA29" s="215">
         <v>4.5</v>
       </c>
       <c r="CB29" s="1" t="s">
@@ -16418,10 +16421,10 @@
       <c r="BY30" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ30" s="1">
+      <c r="BZ30" s="215">
         <v>35</v>
       </c>
-      <c r="CA30" s="1">
+      <c r="CA30" s="215">
         <v>4.5</v>
       </c>
       <c r="CB30" s="1" t="s">
@@ -16663,10 +16666,10 @@
       <c r="BY31" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ31" s="1">
+      <c r="BZ31" s="215">
         <v>35</v>
       </c>
-      <c r="CA31" s="1">
+      <c r="CA31" s="215">
         <v>4.5</v>
       </c>
       <c r="CB31" s="1" t="s">
@@ -16909,10 +16912,10 @@
       <c r="BY32" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ32" s="1">
+      <c r="BZ32" s="215">
         <v>35</v>
       </c>
-      <c r="CA32" s="1">
+      <c r="CA32" s="215">
         <v>4.5</v>
       </c>
       <c r="CB32" s="1" t="s">
@@ -17150,10 +17153,10 @@
       <c r="BY33" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ33" s="1">
+      <c r="BZ33" s="215">
         <v>21</v>
       </c>
-      <c r="CA33" s="1">
+      <c r="CA33" s="215">
         <v>3</v>
       </c>
       <c r="CB33" s="1" t="s">
@@ -17392,10 +17395,10 @@
       <c r="BY34" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ34" s="1">
+      <c r="BZ34" s="215">
         <v>21</v>
       </c>
-      <c r="CA34" s="1">
+      <c r="CA34" s="215">
         <v>3</v>
       </c>
       <c r="CB34" s="1" t="s">
@@ -17633,10 +17636,10 @@
       <c r="BY35" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ35" s="1">
+      <c r="BZ35" s="215">
         <v>21</v>
       </c>
-      <c r="CA35" s="1">
+      <c r="CA35" s="215">
         <v>3</v>
       </c>
       <c r="CB35" s="1" t="s">
@@ -17879,10 +17882,10 @@
       <c r="BY36" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ36" s="1">
+      <c r="BZ36" s="215">
         <v>21</v>
       </c>
-      <c r="CA36" s="1">
+      <c r="CA36" s="215">
         <v>3</v>
       </c>
       <c r="CB36" s="1" t="s">
@@ -18125,10 +18128,10 @@
       <c r="BY37" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ37" s="1">
+      <c r="BZ37" s="215">
         <v>21</v>
       </c>
-      <c r="CA37" s="1">
+      <c r="CA37" s="215">
         <v>3</v>
       </c>
       <c r="CB37" s="1" t="s">
@@ -18370,10 +18373,10 @@
       <c r="BY38" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ38" s="1">
+      <c r="BZ38" s="215">
         <v>21</v>
       </c>
-      <c r="CA38" s="1">
+      <c r="CA38" s="215">
         <v>3</v>
       </c>
       <c r="CB38" s="1" t="s">
@@ -18611,10 +18614,10 @@
       <c r="BY39" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ39" s="1">
+      <c r="BZ39" s="215">
         <v>12</v>
       </c>
-      <c r="CA39" s="1">
+      <c r="CA39" s="215">
         <v>3</v>
       </c>
       <c r="CB39" s="1" t="s">
@@ -18856,10 +18859,10 @@
       <c r="BY40" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ40" s="1">
+      <c r="BZ40" s="215">
         <v>12</v>
       </c>
-      <c r="CA40" s="1">
+      <c r="CA40" s="215">
         <v>3</v>
       </c>
       <c r="CB40" s="1" t="s">
@@ -19099,10 +19102,10 @@
       <c r="BY41" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ41" s="1">
+      <c r="BZ41" s="215">
         <v>11.96</v>
       </c>
-      <c r="CA41" s="1">
+      <c r="CA41" s="215">
         <v>2.9</v>
       </c>
       <c r="CB41" s="1" t="s">
@@ -19346,10 +19349,10 @@
       <c r="BY42" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ42" s="1">
+      <c r="BZ42" s="215">
         <v>11.96</v>
       </c>
-      <c r="CA42" s="1">
+      <c r="CA42" s="215">
         <v>2.9</v>
       </c>
       <c r="CB42" s="1" t="s">
@@ -19587,10 +19590,10 @@
       <c r="BY43" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ43" s="1">
+      <c r="BZ43" s="215">
         <v>15.3</v>
       </c>
-      <c r="CA43" s="1">
+      <c r="CA43" s="215">
         <v>2.8</v>
       </c>
       <c r="CB43" s="1" t="s">
@@ -19832,10 +19835,10 @@
       <c r="BY44" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ44" s="1">
+      <c r="BZ44" s="215">
         <v>15.3</v>
       </c>
-      <c r="CA44" s="1">
+      <c r="CA44" s="215">
         <v>2.8</v>
       </c>
       <c r="CB44" s="1" t="s">
@@ -20073,10 +20076,10 @@
       <c r="BY45" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ45" s="1">
-        <v>28</v>
-      </c>
-      <c r="CA45" s="1">
+      <c r="BZ45" s="215">
+        <v>28</v>
+      </c>
+      <c r="CA45" s="215">
         <v>3</v>
       </c>
       <c r="CB45" s="1" t="s">
@@ -20318,10 +20321,10 @@
       <c r="BY46" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ46" s="1">
-        <v>28</v>
-      </c>
-      <c r="CA46" s="1">
+      <c r="BZ46" s="215">
+        <v>28</v>
+      </c>
+      <c r="CA46" s="215">
         <v>3</v>
       </c>
       <c r="CB46" s="1" t="s">
@@ -20559,10 +20562,10 @@
       <c r="BY47" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ47" s="1">
+      <c r="BZ47" s="215">
         <v>5.22</v>
       </c>
-      <c r="CA47" s="1">
+      <c r="CA47" s="215">
         <v>3</v>
       </c>
       <c r="CB47" s="1" t="s">
@@ -20801,10 +20804,10 @@
       <c r="BY48" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ48" s="1">
+      <c r="BZ48" s="215">
         <v>5.22</v>
       </c>
-      <c r="CA48" s="1">
+      <c r="CA48" s="215">
         <v>3</v>
       </c>
       <c r="CB48" s="1" t="s">
@@ -21046,10 +21049,10 @@
       <c r="BY49" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ49" s="1">
+      <c r="BZ49" s="215">
         <v>5.22</v>
       </c>
-      <c r="CA49" s="1">
+      <c r="CA49" s="215">
         <v>3</v>
       </c>
       <c r="CB49" s="1" t="s">
@@ -21292,10 +21295,10 @@
       <c r="BY50" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ50" s="1">
+      <c r="BZ50" s="215">
         <v>5.22</v>
       </c>
-      <c r="CA50" s="1">
+      <c r="CA50" s="215">
         <v>3</v>
       </c>
       <c r="CB50" s="1" t="s">
@@ -21533,10 +21536,10 @@
       <c r="BY51" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ51" s="1">
+      <c r="BZ51" s="215">
         <v>30.25</v>
       </c>
-      <c r="CA51" s="1">
+      <c r="CA51" s="215">
         <v>4.3</v>
       </c>
       <c r="CB51" s="1" t="s">
@@ -21775,10 +21778,10 @@
       <c r="BY52" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ52" s="1">
+      <c r="BZ52" s="215">
         <v>30.25</v>
       </c>
-      <c r="CA52" s="1">
+      <c r="CA52" s="215">
         <v>4.3</v>
       </c>
       <c r="CB52" s="1" t="s">
@@ -22020,10 +22023,10 @@
       <c r="BY53" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ53" s="1">
+      <c r="BZ53" s="215">
         <v>30.25</v>
       </c>
-      <c r="CA53" s="1">
+      <c r="CA53" s="215">
         <v>4.3</v>
       </c>
       <c r="CB53" s="1" t="s">
@@ -22266,10 +22269,10 @@
       <c r="BY54" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ54" s="1">
+      <c r="BZ54" s="215">
         <v>30.25</v>
       </c>
-      <c r="CA54" s="1">
+      <c r="CA54" s="215">
         <v>4.3</v>
       </c>
       <c r="CB54" s="1" t="s">
@@ -22507,10 +22510,10 @@
       <c r="BY55" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ55" s="1">
+      <c r="BZ55" s="215">
         <v>27.72</v>
       </c>
-      <c r="CA55" s="1">
+      <c r="CA55" s="215">
         <v>3.2</v>
       </c>
       <c r="CB55" s="1" t="s">
@@ -22749,10 +22752,10 @@
       <c r="BY56" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ56" s="1">
+      <c r="BZ56" s="215">
         <v>27.72</v>
       </c>
-      <c r="CA56" s="1">
+      <c r="CA56" s="215">
         <v>3.2</v>
       </c>
       <c r="CB56" s="1" t="s">
@@ -22994,10 +22997,10 @@
       <c r="BY57" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ57" s="1">
+      <c r="BZ57" s="215">
         <v>27.72</v>
       </c>
-      <c r="CA57" s="1">
+      <c r="CA57" s="215">
         <v>3.2</v>
       </c>
       <c r="CB57" s="1" t="s">
@@ -23240,10 +23243,10 @@
       <c r="BY58" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ58" s="1">
+      <c r="BZ58" s="215">
         <v>27.72</v>
       </c>
-      <c r="CA58" s="1">
+      <c r="CA58" s="215">
         <v>3.2</v>
       </c>
       <c r="CB58" s="1" t="s">
@@ -23481,10 +23484,10 @@
       <c r="BY59" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ59" s="1">
+      <c r="BZ59" s="215">
         <v>30</v>
       </c>
-      <c r="CA59" s="1">
+      <c r="CA59" s="215">
         <v>3.6</v>
       </c>
       <c r="CB59" s="1" t="s">
@@ -23726,10 +23729,10 @@
       <c r="BY60" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ60" s="1">
+      <c r="BZ60" s="215">
         <v>30</v>
       </c>
-      <c r="CA60" s="1">
+      <c r="CA60" s="215">
         <v>3.6</v>
       </c>
       <c r="CB60" s="1" t="s">
@@ -23967,10 +23970,10 @@
       <c r="BY61" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ61" s="1">
+      <c r="BZ61" s="215">
         <v>6.3</v>
       </c>
-      <c r="CA61" s="1">
+      <c r="CA61" s="215">
         <v>3.6</v>
       </c>
       <c r="CB61" s="1" t="s">
@@ -24208,10 +24211,10 @@
       <c r="BY62" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ62" s="1">
+      <c r="BZ62" s="215">
         <v>6.3</v>
       </c>
-      <c r="CA62" s="1">
+      <c r="CA62" s="215">
         <v>3.6</v>
       </c>
       <c r="CB62" s="1" t="s">
@@ -24453,10 +24456,10 @@
       <c r="BY63" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ63" s="1">
+      <c r="BZ63" s="215">
         <v>6.3</v>
       </c>
-      <c r="CA63" s="1">
+      <c r="CA63" s="215">
         <v>3.6</v>
       </c>
       <c r="CB63" s="1" t="s">
@@ -24698,10 +24701,10 @@
       <c r="BY64" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ64" s="1">
+      <c r="BZ64" s="215">
         <v>6.3</v>
       </c>
-      <c r="CA64" s="1">
+      <c r="CA64" s="215">
         <v>3.6</v>
       </c>
       <c r="CB64" s="1" t="s">
@@ -24939,10 +24942,10 @@
       <c r="BY65" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ65" s="1">
+      <c r="BZ65" s="215">
         <v>42.25</v>
       </c>
-      <c r="CA65" s="1">
+      <c r="CA65" s="215">
         <v>3</v>
       </c>
       <c r="CB65" s="1" t="s">
@@ -25186,10 +25189,10 @@
       <c r="BY66" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ66" s="1">
+      <c r="BZ66" s="215">
         <v>42.25</v>
       </c>
-      <c r="CA66" s="1">
+      <c r="CA66" s="215">
         <v>3</v>
       </c>
       <c r="CB66" s="1" t="s">
@@ -25427,10 +25430,10 @@
       <c r="BY67" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ67" s="1">
+      <c r="BZ67" s="215">
         <v>17.16</v>
       </c>
-      <c r="CA67" s="1">
+      <c r="CA67" s="215">
         <v>2.9</v>
       </c>
       <c r="CB67" s="1" t="s">
@@ -25672,10 +25675,10 @@
       <c r="BY68" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ68" s="1">
+      <c r="BZ68" s="215">
         <v>17.16</v>
       </c>
-      <c r="CA68" s="1">
+      <c r="CA68" s="215">
         <v>2.9</v>
       </c>
       <c r="CB68" s="1" t="s">
@@ -25913,10 +25916,10 @@
       <c r="BY69" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ69" s="1">
+      <c r="BZ69" s="215">
         <v>29</v>
       </c>
-      <c r="CA69" s="1">
+      <c r="CA69" s="215">
         <v>4.8</v>
       </c>
       <c r="CB69" s="1" t="s">
@@ -26154,10 +26157,10 @@
       <c r="BY70" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ70" s="1">
+      <c r="BZ70" s="215">
         <v>29</v>
       </c>
-      <c r="CA70" s="1">
+      <c r="CA70" s="215">
         <v>4.8</v>
       </c>
       <c r="CB70" s="1" t="s">
@@ -26395,10 +26398,10 @@
       <c r="BY71" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ71" s="1">
+      <c r="BZ71" s="215">
         <v>29</v>
       </c>
-      <c r="CA71" s="1">
+      <c r="CA71" s="215">
         <v>4.8</v>
       </c>
       <c r="CB71" s="1" t="s">
@@ -26636,10 +26639,10 @@
       <c r="BY72" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ72" s="1">
+      <c r="BZ72" s="215">
         <v>29</v>
       </c>
-      <c r="CA72" s="1">
+      <c r="CA72" s="215">
         <v>4.8</v>
       </c>
       <c r="CB72" s="1" t="s">
@@ -26877,10 +26880,10 @@
       <c r="BY73" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ73" s="1">
+      <c r="BZ73" s="215">
         <v>29</v>
       </c>
-      <c r="CA73" s="1">
+      <c r="CA73" s="215">
         <v>4.8</v>
       </c>
       <c r="CB73" s="1" t="s">
@@ -27118,10 +27121,10 @@
       <c r="BY74" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ74" s="1">
+      <c r="BZ74" s="215">
         <v>29</v>
       </c>
-      <c r="CA74" s="1">
+      <c r="CA74" s="215">
         <v>4.8</v>
       </c>
       <c r="CB74" s="1" t="s">
@@ -27359,10 +27362,10 @@
       <c r="BY75" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ75" s="1">
+      <c r="BZ75" s="215">
         <v>29</v>
       </c>
-      <c r="CA75" s="1">
+      <c r="CA75" s="215">
         <v>4.8</v>
       </c>
       <c r="CB75" s="1" t="s">
@@ -27600,10 +27603,10 @@
       <c r="BY76" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ76" s="1">
+      <c r="BZ76" s="215">
         <v>29</v>
       </c>
-      <c r="CA76" s="1">
+      <c r="CA76" s="215">
         <v>4.8</v>
       </c>
       <c r="CB76" s="1" t="s">
@@ -27841,10 +27844,10 @@
       <c r="BY77" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ77" s="1">
+      <c r="BZ77" s="215">
         <v>29</v>
       </c>
-      <c r="CA77" s="1">
+      <c r="CA77" s="215">
         <v>4.8</v>
       </c>
       <c r="CB77" s="1" t="s">
@@ -28086,10 +28089,10 @@
       <c r="BY78" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ78" s="1">
+      <c r="BZ78" s="215">
         <v>29</v>
       </c>
-      <c r="CA78" s="1">
+      <c r="CA78" s="215">
         <v>4.8</v>
       </c>
       <c r="CB78" s="1" t="s">
@@ -28331,10 +28334,10 @@
       <c r="BY79" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ79" s="1">
+      <c r="BZ79" s="215">
         <v>29</v>
       </c>
-      <c r="CA79" s="1">
+      <c r="CA79" s="215">
         <v>4.8</v>
       </c>
       <c r="CB79" s="1" t="s">
@@ -28576,10 +28579,10 @@
       <c r="BY80" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ80" s="1">
+      <c r="BZ80" s="215">
         <v>29</v>
       </c>
-      <c r="CA80" s="1">
+      <c r="CA80" s="215">
         <v>4.8</v>
       </c>
       <c r="CB80" s="1" t="s">
@@ -28821,10 +28824,10 @@
       <c r="BY81" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ81" s="1">
+      <c r="BZ81" s="215">
         <v>29</v>
       </c>
-      <c r="CA81" s="1">
+      <c r="CA81" s="215">
         <v>4.8</v>
       </c>
       <c r="CB81" s="1" t="s">
@@ -29066,10 +29069,10 @@
       <c r="BY82" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ82" s="1">
+      <c r="BZ82" s="215">
         <v>29</v>
       </c>
-      <c r="CA82" s="1">
+      <c r="CA82" s="215">
         <v>4.8</v>
       </c>
       <c r="CB82" s="1" t="s">
@@ -29311,10 +29314,10 @@
       <c r="BY83" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ83" s="1">
+      <c r="BZ83" s="215">
         <v>29</v>
       </c>
-      <c r="CA83" s="1">
+      <c r="CA83" s="215">
         <v>4.8</v>
       </c>
       <c r="CB83" s="1" t="s">
@@ -29556,10 +29559,10 @@
       <c r="BY84" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ84" s="1">
+      <c r="BZ84" s="215">
         <v>29</v>
       </c>
-      <c r="CA84" s="1">
+      <c r="CA84" s="215">
         <v>4.8</v>
       </c>
       <c r="CB84" s="1" t="s">
@@ -29801,10 +29804,10 @@
       <c r="BY85" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ85" s="1">
+      <c r="BZ85" s="215">
         <v>29</v>
       </c>
-      <c r="CA85" s="1">
+      <c r="CA85" s="215">
         <v>4.8</v>
       </c>
       <c r="CB85" s="1" t="s">
@@ -30046,10 +30049,10 @@
       <c r="BY86" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ86" s="1">
+      <c r="BZ86" s="215">
         <v>29</v>
       </c>
-      <c r="CA86" s="1">
+      <c r="CA86" s="215">
         <v>4.8</v>
       </c>
       <c r="CB86" s="1" t="s">
@@ -30287,10 +30290,10 @@
       <c r="BY87" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ87" s="1">
+      <c r="BZ87" s="215">
         <v>6.08</v>
       </c>
-      <c r="CA87" s="1">
+      <c r="CA87" s="215">
         <v>5.2</v>
       </c>
       <c r="CB87" s="1" t="s">
@@ -30528,10 +30531,10 @@
       <c r="BY88" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ88" s="1">
+      <c r="BZ88" s="215">
         <v>6.08</v>
       </c>
-      <c r="CA88" s="1">
+      <c r="CA88" s="215">
         <v>5.2</v>
       </c>
       <c r="CB88" s="1" t="s">
@@ -30769,10 +30772,10 @@
       <c r="BY89" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ89" s="1">
+      <c r="BZ89" s="215">
         <v>6.08</v>
       </c>
-      <c r="CA89" s="1">
+      <c r="CA89" s="215">
         <v>5.2</v>
       </c>
       <c r="CB89" s="1" t="s">
@@ -31014,10 +31017,10 @@
       <c r="BY90" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ90" s="1">
+      <c r="BZ90" s="215">
         <v>6.08</v>
       </c>
-      <c r="CA90" s="1">
+      <c r="CA90" s="215">
         <v>5.2</v>
       </c>
       <c r="CB90" s="1" t="s">
@@ -31259,10 +31262,10 @@
       <c r="BY91" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ91" s="1">
+      <c r="BZ91" s="215">
         <v>6.08</v>
       </c>
-      <c r="CA91" s="1">
+      <c r="CA91" s="215">
         <v>5.2</v>
       </c>
       <c r="CB91" s="1" t="s">
@@ -31504,10 +31507,10 @@
       <c r="BY92" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ92" s="1">
+      <c r="BZ92" s="215">
         <v>6.08</v>
       </c>
-      <c r="CA92" s="1">
+      <c r="CA92" s="215">
         <v>5.2</v>
       </c>
       <c r="CB92" s="1" t="s">
@@ -31745,10 +31748,10 @@
       <c r="BY93" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ93" s="1">
+      <c r="BZ93" s="215">
         <v>22</v>
       </c>
-      <c r="CA93" s="1">
+      <c r="CA93" s="215">
         <v>3.3</v>
       </c>
       <c r="CB93" s="1" t="s">
@@ -31990,10 +31993,10 @@
       <c r="BY94" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ94" s="1">
+      <c r="BZ94" s="215">
         <v>22</v>
       </c>
-      <c r="CA94" s="1">
+      <c r="CA94" s="215">
         <v>3.3</v>
       </c>
       <c r="CB94" s="1" t="s">
@@ -32231,10 +32234,10 @@
       <c r="BY95" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ95" s="1">
+      <c r="BZ95" s="215">
         <v>13</v>
       </c>
-      <c r="CA95" s="1">
+      <c r="CA95" s="215">
         <v>5</v>
       </c>
       <c r="CB95" s="1" t="s">
@@ -32472,10 +32475,10 @@
       <c r="BY96" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ96" s="1">
+      <c r="BZ96" s="215">
         <v>13</v>
       </c>
-      <c r="CA96" s="1">
+      <c r="CA96" s="215">
         <v>5</v>
       </c>
       <c r="CB96" s="1" t="s">
@@ -32713,10 +32716,10 @@
       <c r="BY97" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ97" s="1">
+      <c r="BZ97" s="215">
         <v>13</v>
       </c>
-      <c r="CA97" s="1">
+      <c r="CA97" s="215">
         <v>5</v>
       </c>
       <c r="CB97" s="1" t="s">
@@ -32958,10 +32961,10 @@
       <c r="BY98" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ98" s="1">
+      <c r="BZ98" s="215">
         <v>13</v>
       </c>
-      <c r="CA98" s="1">
+      <c r="CA98" s="215">
         <v>5</v>
       </c>
       <c r="CB98" s="1" t="s">
@@ -33203,10 +33206,10 @@
       <c r="BY99" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ99" s="1">
+      <c r="BZ99" s="215">
         <v>13</v>
       </c>
-      <c r="CA99" s="1">
+      <c r="CA99" s="215">
         <v>5</v>
       </c>
       <c r="CB99" s="1" t="s">
@@ -33448,10 +33451,10 @@
       <c r="BY100" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ100" s="1">
+      <c r="BZ100" s="215">
         <v>13</v>
       </c>
-      <c r="CA100" s="1">
+      <c r="CA100" s="215">
         <v>5</v>
       </c>
       <c r="CB100" s="1" t="s">
@@ -33689,10 +33692,10 @@
       <c r="BY101" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ101" s="1">
+      <c r="BZ101" s="215">
         <v>4.5</v>
       </c>
-      <c r="CA101" s="1">
+      <c r="CA101" s="215">
         <v>2.8</v>
       </c>
       <c r="CB101" s="1" t="s">
@@ -33932,10 +33935,10 @@
       <c r="BY102" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ102" s="1">
+      <c r="BZ102" s="215">
         <v>6</v>
       </c>
-      <c r="CA102" s="1">
+      <c r="CA102" s="215">
         <v>2.8</v>
       </c>
       <c r="CB102" s="1" t="s">
@@ -34177,10 +34180,10 @@
       <c r="BY103" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ103" s="1">
+      <c r="BZ103" s="215">
         <v>4.5</v>
       </c>
-      <c r="CA103" s="1">
+      <c r="CA103" s="215">
         <v>2.8</v>
       </c>
       <c r="CB103" s="1" t="s">
@@ -34424,10 +34427,10 @@
       <c r="BY104" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ104" s="1">
+      <c r="BZ104" s="215">
         <v>6</v>
       </c>
-      <c r="CA104" s="1">
+      <c r="CA104" s="215">
         <v>2.8</v>
       </c>
       <c r="CB104" s="1" t="s">
@@ -34665,10 +34668,10 @@
       <c r="BY105" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ105" s="1">
+      <c r="BZ105" s="215">
         <v>38.520000000000003</v>
       </c>
-      <c r="CA105" s="1">
+      <c r="CA105" s="215">
         <v>3.48</v>
       </c>
       <c r="CB105" s="1" t="s">
@@ -34906,10 +34909,10 @@
       <c r="BY106" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ106" s="1">
+      <c r="BZ106" s="215">
         <v>38.520000000000003</v>
       </c>
-      <c r="CA106" s="1">
+      <c r="CA106" s="215">
         <v>3.48</v>
       </c>
       <c r="CB106" s="1" t="s">
@@ -35151,10 +35154,10 @@
       <c r="BY107" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ107" s="1">
+      <c r="BZ107" s="215">
         <v>38.520000000000003</v>
       </c>
-      <c r="CA107" s="1">
+      <c r="CA107" s="215">
         <v>3.48</v>
       </c>
       <c r="CB107" s="1" t="s">
@@ -35396,10 +35399,10 @@
       <c r="BY108" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ108" s="1">
+      <c r="BZ108" s="215">
         <v>38.520000000000003</v>
       </c>
-      <c r="CA108" s="1">
+      <c r="CA108" s="215">
         <v>3.48</v>
       </c>
       <c r="CB108" s="1" t="s">
@@ -35637,10 +35640,10 @@
       <c r="BY109" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ109" s="1">
+      <c r="BZ109" s="215">
         <v>18.600000000000001</v>
       </c>
-      <c r="CA109" s="1">
+      <c r="CA109" s="215">
         <v>3.9</v>
       </c>
       <c r="CB109" s="1" t="s">
@@ -35882,10 +35885,10 @@
       <c r="BY110" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ110" s="1">
+      <c r="BZ110" s="215">
         <v>18.600000000000001</v>
       </c>
-      <c r="CA110" s="1">
+      <c r="CA110" s="215">
         <v>3.9</v>
       </c>
       <c r="CB110" s="1" t="s">
@@ -36123,10 +36126,10 @@
       <c r="BY111" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ111" s="1">
+      <c r="BZ111" s="215">
         <v>12.48</v>
       </c>
-      <c r="CA111" s="1">
+      <c r="CA111" s="215">
         <v>3.5</v>
       </c>
       <c r="CB111" s="1" t="s">
@@ -36364,10 +36367,10 @@
       <c r="BY112" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ112" s="1">
+      <c r="BZ112" s="215">
         <v>12.48</v>
       </c>
-      <c r="CA112" s="1">
+      <c r="CA112" s="215">
         <v>3.5</v>
       </c>
       <c r="CB112" s="1" t="s">
@@ -36609,10 +36612,10 @@
       <c r="BY113" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ113" s="1">
+      <c r="BZ113" s="215">
         <v>12.48</v>
       </c>
-      <c r="CA113" s="1">
+      <c r="CA113" s="215">
         <v>3.5</v>
       </c>
       <c r="CB113" s="1" t="s">
@@ -36854,10 +36857,10 @@
       <c r="BY114" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ114" s="1">
+      <c r="BZ114" s="215">
         <v>12.48</v>
       </c>
-      <c r="CA114" s="1">
+      <c r="CA114" s="215">
         <v>3.5</v>
       </c>
       <c r="CB114" s="1" t="s">
@@ -37095,10 +37098,10 @@
       <c r="BY115" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ115" s="1">
+      <c r="BZ115" s="215">
         <v>58</v>
       </c>
-      <c r="CA115" s="1">
+      <c r="CA115" s="215">
         <v>3.5</v>
       </c>
       <c r="CB115" s="1" t="s">
@@ -37336,10 +37339,10 @@
       <c r="BY116" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ116" s="1">
+      <c r="BZ116" s="215">
         <v>58</v>
       </c>
-      <c r="CA116" s="1">
+      <c r="CA116" s="215">
         <v>3.5</v>
       </c>
       <c r="CB116" s="1" t="s">
@@ -37577,10 +37580,10 @@
       <c r="BY117" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ117" s="1">
+      <c r="BZ117" s="215">
         <v>58</v>
       </c>
-      <c r="CA117" s="1">
+      <c r="CA117" s="215">
         <v>3.5</v>
       </c>
       <c r="CB117" s="1" t="s">
@@ -37818,10 +37821,10 @@
       <c r="BY118" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ118" s="1">
+      <c r="BZ118" s="215">
         <v>58</v>
       </c>
-      <c r="CA118" s="1">
+      <c r="CA118" s="215">
         <v>3.5</v>
       </c>
       <c r="CB118" s="1" t="s">
@@ -38055,10 +38058,10 @@
       <c r="BY119" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ119" s="1">
+      <c r="BZ119" s="215">
         <v>58</v>
       </c>
-      <c r="CA119" s="1">
+      <c r="CA119" s="215">
         <v>3.5</v>
       </c>
       <c r="CB119" s="1" t="s">
@@ -38300,10 +38303,10 @@
       <c r="BY120" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ120" s="1">
+      <c r="BZ120" s="215">
         <v>58</v>
       </c>
-      <c r="CA120" s="1">
+      <c r="CA120" s="215">
         <v>3.5</v>
       </c>
       <c r="CB120" s="1" t="s">
@@ -38541,10 +38544,10 @@
       <c r="BY121" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ121" s="1">
+      <c r="BZ121" s="215">
         <v>4.7</v>
       </c>
-      <c r="CA121" s="1">
+      <c r="CA121" s="215">
         <v>2.4</v>
       </c>
       <c r="CB121" s="1" t="s">
@@ -38786,10 +38789,10 @@
       <c r="BY122" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ122" s="1">
+      <c r="BZ122" s="215">
         <v>4.7</v>
       </c>
-      <c r="CA122" s="1">
+      <c r="CA122" s="215">
         <v>2.4</v>
       </c>
       <c r="CB122" s="1" t="s">
@@ -39027,10 +39030,10 @@
       <c r="BY123" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ123" s="1">
+      <c r="BZ123" s="215">
         <v>4.7</v>
       </c>
-      <c r="CA123" s="1">
+      <c r="CA123" s="215">
         <v>2.4</v>
       </c>
       <c r="CB123" s="1" t="s">
@@ -39272,10 +39275,10 @@
       <c r="BY124" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ124" s="1">
+      <c r="BZ124" s="215">
         <v>4.7</v>
       </c>
-      <c r="CA124" s="1">
+      <c r="CA124" s="215">
         <v>2.4</v>
       </c>
       <c r="CB124" s="1" t="s">
@@ -39513,10 +39516,10 @@
       <c r="BY125" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ125" s="1">
+      <c r="BZ125" s="215">
         <v>4.7</v>
       </c>
-      <c r="CA125" s="1">
+      <c r="CA125" s="215">
         <v>2.4</v>
       </c>
       <c r="CB125" s="1" t="s">
@@ -39758,10 +39761,10 @@
       <c r="BY126" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ126" s="1">
+      <c r="BZ126" s="215">
         <v>4.7</v>
       </c>
-      <c r="CA126" s="1">
+      <c r="CA126" s="215">
         <v>2.4</v>
       </c>
       <c r="CB126" s="1" t="s">
@@ -39999,10 +40002,10 @@
       <c r="BY127" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ127" s="1">
+      <c r="BZ127" s="215">
         <v>25</v>
       </c>
-      <c r="CA127" s="1">
+      <c r="CA127" s="215">
         <v>2.5</v>
       </c>
       <c r="CB127" s="1" t="s">
@@ -40244,10 +40247,10 @@
       <c r="BY128" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ128" s="1">
+      <c r="BZ128" s="215">
         <v>25</v>
       </c>
-      <c r="CA128" s="1">
+      <c r="CA128" s="215">
         <v>2.5</v>
       </c>
       <c r="CB128" s="1" t="s">
@@ -40485,10 +40488,10 @@
       <c r="BY129" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ129" s="1">
+      <c r="BZ129" s="215">
         <v>3.8</v>
       </c>
-      <c r="CA129" s="1">
+      <c r="CA129" s="215">
         <v>2.5</v>
       </c>
       <c r="CB129" s="1" t="s">
@@ -40726,10 +40729,10 @@
       <c r="BY130" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ130" s="1">
+      <c r="BZ130" s="215">
         <v>3.8</v>
       </c>
-      <c r="CA130" s="1">
+      <c r="CA130" s="215">
         <v>2.5</v>
       </c>
       <c r="CB130" s="1" t="s">
@@ -40971,10 +40974,10 @@
       <c r="BY131" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ131" s="1">
+      <c r="BZ131" s="215">
         <v>3.8</v>
       </c>
-      <c r="CA131" s="1">
+      <c r="CA131" s="215">
         <v>2.5</v>
       </c>
       <c r="CB131" s="1" t="s">
@@ -41216,10 +41219,10 @@
       <c r="BY132" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ132" s="1">
+      <c r="BZ132" s="215">
         <v>3.8</v>
       </c>
-      <c r="CA132" s="1">
+      <c r="CA132" s="215">
         <v>2.5</v>
       </c>
       <c r="CB132" s="1" t="s">
@@ -41457,10 +41460,10 @@
       <c r="BY133" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ133" s="1">
+      <c r="BZ133" s="215">
         <v>24.96</v>
       </c>
-      <c r="CA133" s="1">
+      <c r="CA133" s="215">
         <v>3.7</v>
       </c>
       <c r="CB133" s="1" t="s">
@@ -41698,10 +41701,10 @@
       <c r="BY134" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ134" s="1">
+      <c r="BZ134" s="215">
         <v>24.96</v>
       </c>
-      <c r="CA134" s="1">
+      <c r="CA134" s="215">
         <v>3.7</v>
       </c>
       <c r="CB134" s="1" t="s">
@@ -41943,10 +41946,10 @@
       <c r="BY135" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ135" s="1">
+      <c r="BZ135" s="215">
         <v>24.96</v>
       </c>
-      <c r="CA135" s="1">
+      <c r="CA135" s="215">
         <v>3.7</v>
       </c>
       <c r="CB135" s="1" t="s">
@@ -42188,10 +42191,10 @@
       <c r="BY136" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ136" s="1">
+      <c r="BZ136" s="215">
         <v>24.96</v>
       </c>
-      <c r="CA136" s="1">
+      <c r="CA136" s="215">
         <v>3.7</v>
       </c>
       <c r="CB136" s="1" t="s">
@@ -42429,10 +42432,10 @@
       <c r="BY137" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ137" s="1">
+      <c r="BZ137" s="215">
         <v>3.64</v>
       </c>
-      <c r="CA137" s="1">
+      <c r="CA137" s="215">
         <v>2.2999999999999998</v>
       </c>
       <c r="CB137" s="1" t="s">
@@ -42674,10 +42677,10 @@
       <c r="BY138" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ138" s="1">
+      <c r="BZ138" s="215">
         <v>3.64</v>
       </c>
-      <c r="CA138" s="1">
+      <c r="CA138" s="215">
         <v>2.2999999999999998</v>
       </c>
       <c r="CB138" s="1" t="s">
@@ -42915,10 +42918,10 @@
       <c r="BY139" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ139" s="1">
+      <c r="BZ139" s="215">
         <v>30.25</v>
       </c>
-      <c r="CA139" s="1">
+      <c r="CA139" s="215">
         <v>4.3</v>
       </c>
       <c r="CB139" s="1" t="s">
@@ -43156,10 +43159,10 @@
       <c r="BY140" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ140" s="1">
+      <c r="BZ140" s="215">
         <v>30.25</v>
       </c>
-      <c r="CA140" s="1">
+      <c r="CA140" s="215">
         <v>4.3</v>
       </c>
       <c r="CB140" s="1" t="s">
@@ -43401,10 +43404,10 @@
       <c r="BY141" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ141" s="1">
+      <c r="BZ141" s="215">
         <v>30.25</v>
       </c>
-      <c r="CA141" s="1">
+      <c r="CA141" s="215">
         <v>4.3</v>
       </c>
       <c r="CB141" s="1" t="s">
@@ -43646,10 +43649,10 @@
       <c r="BY142" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ142" s="1">
+      <c r="BZ142" s="215">
         <v>30.25</v>
       </c>
-      <c r="CA142" s="1">
+      <c r="CA142" s="215">
         <v>4.3</v>
       </c>
       <c r="CB142" s="1" t="s">
@@ -43887,10 +43890,10 @@
       <c r="BY143" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ143" s="1">
+      <c r="BZ143" s="215">
         <v>24</v>
       </c>
-      <c r="CA143" s="1">
+      <c r="CA143" s="215">
         <v>2.5</v>
       </c>
       <c r="CB143" s="1" t="s">
@@ -44128,10 +44131,10 @@
       <c r="BY144" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ144" s="1">
+      <c r="BZ144" s="215">
         <v>24</v>
       </c>
-      <c r="CA144" s="1">
+      <c r="CA144" s="215">
         <v>2.5</v>
       </c>
       <c r="CB144" s="1" t="s">
@@ -44369,10 +44372,10 @@
       <c r="BY145" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ145" s="1">
+      <c r="BZ145" s="215">
         <v>24</v>
       </c>
-      <c r="CA145" s="1">
+      <c r="CA145" s="215">
         <v>2.5</v>
       </c>
       <c r="CB145" s="1" t="s">
@@ -44610,10 +44613,10 @@
       <c r="BY146" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ146" s="1">
+      <c r="BZ146" s="215">
         <v>24</v>
       </c>
-      <c r="CA146" s="1">
+      <c r="CA146" s="215">
         <v>2.5</v>
       </c>
       <c r="CB146" s="1" t="s">
@@ -44855,10 +44858,10 @@
       <c r="BY147" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ147" s="1">
+      <c r="BZ147" s="215">
         <v>24</v>
       </c>
-      <c r="CA147" s="1">
+      <c r="CA147" s="215">
         <v>2.5</v>
       </c>
       <c r="CB147" s="1" t="s">
@@ -45100,10 +45103,10 @@
       <c r="BY148" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ148" s="1">
+      <c r="BZ148" s="215">
         <v>24</v>
       </c>
-      <c r="CA148" s="1">
+      <c r="CA148" s="215">
         <v>2.5</v>
       </c>
       <c r="CB148" s="1" t="s">
@@ -45345,10 +45348,10 @@
       <c r="BY149" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ149" s="1">
+      <c r="BZ149" s="215">
         <v>24</v>
       </c>
-      <c r="CA149" s="1">
+      <c r="CA149" s="215">
         <v>2.5</v>
       </c>
       <c r="CB149" s="1" t="s">
@@ -45590,10 +45593,10 @@
       <c r="BY150" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ150" s="1">
+      <c r="BZ150" s="215">
         <v>24</v>
       </c>
-      <c r="CA150" s="1">
+      <c r="CA150" s="215">
         <v>2.5</v>
       </c>
       <c r="CB150" s="1" t="s">
@@ -45831,10 +45834,10 @@
       <c r="BY151" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ151" s="1">
+      <c r="BZ151" s="215">
         <v>8</v>
       </c>
-      <c r="CA151" s="1">
+      <c r="CA151" s="215">
         <v>3</v>
       </c>
       <c r="CB151" s="1" t="s">
@@ -46076,10 +46079,10 @@
       <c r="BY152" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ152" s="1">
+      <c r="BZ152" s="215">
         <v>8</v>
       </c>
-      <c r="CA152" s="1">
+      <c r="CA152" s="215">
         <v>3</v>
       </c>
       <c r="CB152" s="1" t="s">
@@ -46317,10 +46320,10 @@
       <c r="BY153" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ153" s="1">
+      <c r="BZ153" s="215">
         <v>10</v>
       </c>
-      <c r="CA153" s="1">
+      <c r="CA153" s="215">
         <v>4.0999999999999996</v>
       </c>
       <c r="CB153" s="1" t="s">
@@ -46558,10 +46561,10 @@
       <c r="BY154" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ154" s="1">
+      <c r="BZ154" s="215">
         <v>10</v>
       </c>
-      <c r="CA154" s="1">
+      <c r="CA154" s="215">
         <v>4.0999999999999996</v>
       </c>
       <c r="CB154" s="1" t="s">
@@ -46799,10 +46802,10 @@
       <c r="BY155" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ155" s="1">
+      <c r="BZ155" s="215">
         <v>10</v>
       </c>
-      <c r="CA155" s="1">
+      <c r="CA155" s="215">
         <v>4.0999999999999996</v>
       </c>
       <c r="CB155" s="1" t="s">
@@ -47044,10 +47047,10 @@
       <c r="BY156" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ156" s="1">
+      <c r="BZ156" s="215">
         <v>10</v>
       </c>
-      <c r="CA156" s="1">
+      <c r="CA156" s="215">
         <v>4.0999999999999996</v>
       </c>
       <c r="CB156" s="1" t="s">
@@ -47289,10 +47292,10 @@
       <c r="BY157" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ157" s="1">
+      <c r="BZ157" s="215">
         <v>10</v>
       </c>
-      <c r="CA157" s="1">
+      <c r="CA157" s="215">
         <v>4.0999999999999996</v>
       </c>
       <c r="CB157" s="1" t="s">
@@ -47534,10 +47537,10 @@
       <c r="BY158" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ158" s="1">
+      <c r="BZ158" s="215">
         <v>10</v>
       </c>
-      <c r="CA158" s="1">
+      <c r="CA158" s="215">
         <v>4.0999999999999996</v>
       </c>
       <c r="CB158" s="1" t="s">
@@ -47771,10 +47774,10 @@
       <c r="BY159" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ159" s="1">
+      <c r="BZ159" s="215">
         <v>12.15</v>
       </c>
-      <c r="CA159" s="1">
+      <c r="CA159" s="215">
         <v>3</v>
       </c>
       <c r="CB159" s="1" t="s">
@@ -48014,10 +48017,10 @@
       <c r="BY160" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ160" s="1">
+      <c r="BZ160" s="215">
         <v>9</v>
       </c>
-      <c r="CA160" s="1">
+      <c r="CA160" s="215">
         <v>3</v>
       </c>
       <c r="CB160" s="1" t="s">
@@ -48261,10 +48264,10 @@
       <c r="BY161" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ161" s="1">
+      <c r="BZ161" s="215">
         <v>9</v>
       </c>
-      <c r="CA161" s="1">
+      <c r="CA161" s="215">
         <v>3</v>
       </c>
       <c r="CB161" s="1" t="s">
@@ -48504,10 +48507,10 @@
       <c r="BY162" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ162" s="1">
+      <c r="BZ162" s="215">
         <v>22.64</v>
       </c>
-      <c r="CA162" s="1">
+      <c r="CA162" s="215">
         <v>3.2</v>
       </c>
       <c r="CB162" s="1" t="s">
@@ -48741,10 +48744,10 @@
       <c r="BY163" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ163" s="1">
+      <c r="BZ163" s="215">
         <v>22.64</v>
       </c>
-      <c r="CA163" s="1">
+      <c r="CA163" s="215">
         <v>3.2</v>
       </c>
       <c r="CB163" s="1" t="s">
@@ -48976,10 +48979,10 @@
       <c r="BY164" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ164" s="1">
+      <c r="BZ164" s="215">
         <v>8.4</v>
       </c>
-      <c r="CA164" s="1">
+      <c r="CA164" s="215">
         <v>3</v>
       </c>
       <c r="CB164" s="1" t="s">
@@ -49213,10 +49216,10 @@
       <c r="BY165" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ165" s="1">
+      <c r="BZ165" s="215">
         <v>2.04</v>
       </c>
-      <c r="CA165" s="1">
+      <c r="CA165" s="215">
         <v>4.5</v>
       </c>
       <c r="CB165" s="1" t="s">
@@ -49456,8 +49459,8 @@
       <c r="BY166" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ166" s="1"/>
-      <c r="CA166" s="1"/>
+      <c r="BZ166" s="215"/>
+      <c r="CA166" s="215"/>
       <c r="CB166" s="1" t="s">
         <v>1803</v>
       </c>
@@ -49699,10 +49702,10 @@
       <c r="BY167" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ167" s="1">
+      <c r="BZ167" s="215">
         <v>36</v>
       </c>
-      <c r="CA167" s="1">
+      <c r="CA167" s="215">
         <v>3</v>
       </c>
       <c r="CB167" s="1" t="s">
@@ -49942,10 +49945,10 @@
       <c r="BY168" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ168" s="1">
+      <c r="BZ168" s="215">
         <v>36</v>
       </c>
-      <c r="CA168" s="1">
+      <c r="CA168" s="215">
         <v>3</v>
       </c>
       <c r="CB168" s="1" t="s">
@@ -50185,10 +50188,10 @@
       <c r="BY169" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ169" s="1">
+      <c r="BZ169" s="215">
         <v>36</v>
       </c>
-      <c r="CA169" s="1">
+      <c r="CA169" s="215">
         <v>3</v>
       </c>
       <c r="CB169" s="1" t="s">
@@ -50428,10 +50431,10 @@
       <c r="BY170" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ170" s="1">
+      <c r="BZ170" s="215">
         <v>8.5</v>
       </c>
-      <c r="CA170" s="1">
+      <c r="CA170" s="215">
         <v>3</v>
       </c>
       <c r="CB170" s="1" t="s">
@@ -50671,10 +50674,10 @@
       <c r="BY171" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ171" s="1">
+      <c r="BZ171" s="215">
         <v>36</v>
       </c>
-      <c r="CA171" s="1">
+      <c r="CA171" s="215">
         <v>3</v>
       </c>
       <c r="CB171" s="1" t="s">
@@ -50914,10 +50917,10 @@
       <c r="BY172" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ172" s="1">
+      <c r="BZ172" s="215">
         <v>36</v>
       </c>
-      <c r="CA172" s="1">
+      <c r="CA172" s="215">
         <v>3</v>
       </c>
       <c r="CB172" s="1" t="s">
@@ -51157,10 +51160,10 @@
       <c r="BY173" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ173" s="1">
+      <c r="BZ173" s="215">
         <v>36</v>
       </c>
-      <c r="CA173" s="1">
+      <c r="CA173" s="215">
         <v>3</v>
       </c>
       <c r="CB173" s="1" t="s">
@@ -51400,10 +51403,10 @@
       <c r="BY174" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ174" s="1">
+      <c r="BZ174" s="215">
         <v>8.5</v>
       </c>
-      <c r="CA174" s="1">
+      <c r="CA174" s="215">
         <v>3</v>
       </c>
       <c r="CB174" s="1" t="s">
@@ -51643,10 +51646,10 @@
       <c r="BY175" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ175" s="1">
+      <c r="BZ175" s="215">
         <v>36</v>
       </c>
-      <c r="CA175" s="1">
+      <c r="CA175" s="215">
         <v>3</v>
       </c>
       <c r="CB175" s="1" t="s">
@@ -51886,10 +51889,10 @@
       <c r="BY176" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ176" s="1">
+      <c r="BZ176" s="215">
         <v>8.5</v>
       </c>
-      <c r="CA176" s="1">
+      <c r="CA176" s="215">
         <v>3</v>
       </c>
       <c r="CB176" s="1" t="s">
@@ -52133,10 +52136,10 @@
       <c r="BY177" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ177" s="1">
+      <c r="BZ177" s="215">
         <v>8.5</v>
       </c>
-      <c r="CA177" s="1">
+      <c r="CA177" s="215">
         <v>3</v>
       </c>
       <c r="CB177" s="1" t="s">
@@ -52378,10 +52381,10 @@
       <c r="BY178" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ178" s="1">
+      <c r="BZ178" s="215">
         <v>22.09</v>
       </c>
-      <c r="CA178" s="195">
+      <c r="CA178" s="215">
         <v>4.7</v>
       </c>
       <c r="CB178" s="1" t="s">
@@ -52623,10 +52626,10 @@
       <c r="BY179" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ179" s="1">
+      <c r="BZ179" s="215">
         <v>22.09</v>
       </c>
-      <c r="CA179" s="195">
+      <c r="CA179" s="215">
         <v>4.7</v>
       </c>
       <c r="CB179" s="1" t="s">
@@ -52868,10 +52871,10 @@
       <c r="BY180" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ180" s="1">
+      <c r="BZ180" s="215">
         <v>22.09</v>
       </c>
-      <c r="CA180" s="195">
+      <c r="CA180" s="215">
         <v>4.7</v>
       </c>
       <c r="CB180" s="1" t="s">
@@ -53113,10 +53116,10 @@
       <c r="BY181" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ181" s="1">
+      <c r="BZ181" s="215">
         <v>22.09</v>
       </c>
-      <c r="CA181" s="195">
+      <c r="CA181" s="215">
         <v>4.7</v>
       </c>
       <c r="CB181" s="1" t="s">
@@ -53358,10 +53361,10 @@
       <c r="BY182" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ182" s="1">
+      <c r="BZ182" s="215">
         <v>16.32</v>
       </c>
-      <c r="CA182" s="1">
+      <c r="CA182" s="215">
         <v>4.2</v>
       </c>
       <c r="CB182" s="1" t="s">
@@ -53603,10 +53606,10 @@
       <c r="BY183" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ183" s="1">
+      <c r="BZ183" s="215">
         <v>16.32</v>
       </c>
-      <c r="CA183" s="1">
+      <c r="CA183" s="215">
         <v>4.2</v>
       </c>
       <c r="CB183" s="1" t="s">
@@ -53848,10 +53851,10 @@
       <c r="BY184" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ184" s="1">
+      <c r="BZ184" s="215">
         <v>16.32</v>
       </c>
-      <c r="CA184" s="1">
+      <c r="CA184" s="215">
         <v>4.2</v>
       </c>
       <c r="CB184" s="1" t="s">
@@ -54089,10 +54092,10 @@
       <c r="BY185" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BZ185" s="1">
-        <v>28</v>
-      </c>
-      <c r="CA185" s="1">
+      <c r="BZ185" s="215">
+        <v>28</v>
+      </c>
+      <c r="CA185" s="215">
         <v>3</v>
       </c>
       <c r="CB185" s="1" t="s">

--- a/src/test/resources/data/测试数据.xlsx
+++ b/src/test/resources/data/测试数据.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29926903-383D-4068-A54F-6D5731E18575}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0817A68F-774C-4264-A536-1A080DFC172C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5085" yWindow="3195" windowWidth="22305" windowHeight="11985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="915" yWindow="2730" windowWidth="26565" windowHeight="11985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="需设计填写" sheetId="1" r:id="rId1"/>
@@ -14,14 +14,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">需设计填写!$A$1:$DA$2</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -596,9 +588,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="182" formatCode="0.00_ "/>
-    <numFmt numFmtId="183" formatCode="yyyy/mm"/>
-    <numFmt numFmtId="184" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy/mm"/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -780,40 +772,40 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1226,8 +1218,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:CZ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AY1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BA10" sqref="BA10"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AJ2" sqref="AJ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -1720,7 +1712,7 @@
         <v>107</v>
       </c>
       <c r="AJ2" s="9">
-        <v>43989</v>
+        <v>44502</v>
       </c>
       <c r="AK2" s="1" t="s">
         <v>74</v>
